--- a/modules/web_application/my_app/articles_with_punkts.xlsx
+++ b/modules/web_application/my_app/articles_with_punkts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Потрібне сміття\УКУ\homework\web_application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Потрібне сміття\УКУ\Homeworks-Lawyer-online\modules\web_application\my_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5374,27 +5374,6 @@
     <t>Важливі слова</t>
   </si>
   <si>
-    <t>{'праці', 'тяжкий', 'зарахувати', 'світ', 'рутин', 'душа', 'звук', 'громадські', 'завдання', 'небезпечні для життя', 'шифрувати', 'порочний', 'ввічливий', 'сильний', 'населення', 'складають', 'system_of_rules', 'цілісний', 'кодифікація', 'небезпечний', 'осудний', 'Україна', 'починання', 'поза законом', 'цифер', 'цивільний', 'вбудований', 'конституційний', 'система', 'код', 'хтось', 'організації', 'шахрай', 'юридичний', 'злочинний', 'громадянські', 'особа', 'домовленість', 'органічні', 'індивідуальний'}</t>
-  </si>
-  <si>
-    <t>{'законні', 'суд_справедливості', 'тера_фірма', 'двір', 'ву', 'run_aground', 'основа', 'причина', 'душа', 'article_of_faith', 'royal_court', 'наступальна_діяльність', 'Поодинці', 'кримінальний злочин', 'motor_hotel', 'корпус', "прем'єр", 'суха земля', 'правопорушення', 'те саме', 'недоброзичливість', 'вбрання', 'Ми можемо', 'порочний', 'правда', 'ґрунтовка', 'законний', 'осудний', 'поза законом', 'motor_lodge', 'підстави', 'спочатку', 'зал суду', 'відповідальність', 'шанування', 'якір', 'ґрунт', 'заборгованість', 'кривощі', 'переконання', 'осуд', "фінансові зобов'язання", 'Лапландер', 'романтика', 'судовий процес', 'Саамі', 'хтось', 'Суд', 'шахрай', 'речення', 'суд', 'підшерсток', 'злочинний', 'знайдено', 'база', 'особа', 'земля', 'подібно до', 'землі', 'індивідуальний'}</t>
-  </si>
-  <si>
-    <t>{'колишній', 'імпорт', 'уздовж', 'зовнішній', 'зарахувати', 'дебют', 'аналогія', 'наслідки', 'бухгалтерія', 'вхідний', 'вступ', 'плачевний', 'підсумок', 'інший', 'подія', 'шифрувати', 'порочний', 'проникнення', 'подання', 'кодифікація', 'осудний', 'вихід', 'Україна', 'поза законом', 'цифер', 'відкриття', 'відповідальність', 'введення', 'заборгованість', 'запуск', 'statute_law', "фінансові зобов'язання", "під'їзд", 'запис', 'міжнародні', 'код', 'шахрай', 'рано', 'законотворчість', 'законодавчі', 'Міжнародний', 'злочинний', 'результат', 'на', 'наслідок', 'зовні'}</t>
-  </si>
-  <si>
-    <t>{'термін дії', 'колишній', 'юридична філософія', 'уздовж', 'четверте_вимір', 'імпорт', 'Індіана', 'закон', 'наслідки', 'clock_time', 'плачевний', 'похотість', 'інший', 'подія', 'підсумок', 'годинник', 'юриспруденція', 'порочний', 'індій', 'офіційний', 'atomic_number_49', 'всередину', 'осудний', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'відповідальність', 'заборгованість', 'В', "фінансові зобов'язання", 'в', 'метр', 'час', 'видання', 'строгість', 'дюйм', 'шахрай', 'рано', 'речення', 'злочинний', 'результат', 'на', 'наслідок', 'кліп', 'функціонер'}</t>
-  </si>
-  <si>
-    <t>{'заднім числом', 'колишній', 'юридична філософія', 'уздовж', 'четверте_вимір', 'суть', 'Індіана', 'закон', 'душа', 'сила', 'clock_time', 'підсумок', 'інший', 'подія', 'годинник', 'юриспруденція', 'ефект', 'порочний', 'індій', 'atomic_number_49', 'всередину', 'таких', 'здійснити', 'осудний', 'поза законом', 'поліція', 'міліція', 'відповідальність', 'злочин', 'відповідні', 'після факту', 'заборгованість', 'В', "фінансові зобов'язання", 'в', 'метр', 'час', 'хтось', 'серцевина', 'сутність', 'дюйм', 'шахрай', 'рано', 'речення', 'злочинний', 'особа', 'результат', 'на', 'наслідок', 'кліп', 'індивідуальний'}</t>
-  </si>
-  <si>
-    <t>{'термін дії', 'колишній', 'юридична філософія', 'уздовж', "нав'язливість", 'зовнішній', 'район', 'закон', 'кримінальний злочин', 'довірити', 'присвятити', 'плачевний', 'похотість', 'інший', 'правопорушення', 'вчинити', 'юриспруденція', 'інвестувати', 'вчинення', 'порочний', 'тягнути', 'осудний', 'інституціоналізувати', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'Україна', 'відповідальність', 'злочин', 'ґрунт', 'заборгованість', 'панування', "фінансові зобов'язання", 'міжнародні', 'зарядка', 'практика', 'строгість', 'місце', 'додається', 'довіра', 'надіслати', 'довіряти', 'шахрай', 'рано', 'Міжнародний', 'територіальний_домініон', 'злочинний', 'на', 'території', 'зовні'}</t>
-  </si>
-  <si>
-    <t>{'термін дії', 'юридична філософія', 'уздовж', "нав'язливість", 'зовнішній', 'бездомні', 'на відкритому повітрі', 'від', 'закон', 'кримінальний злочин', 'душа', 'довірити', 'присвятити', 'АБО', 'похотість', 'правопорушення', 'вчинити', 'юриспруденція', 'інвестувати', 'вчинення', 'порочний', 'тягнути', 'на вулиці', 'убік', 'віддалений', 'осудний', 'інституціоналізувати', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'Україна', 'відповідальність', 'відкритий', 'заборгованість', "фінансові зобов'язання", 'стороннє', 'міжнародні', 'без громадянства', 'зарядка', 'практика', 'строгість', 'місце', 'додається', 'довіра', 'операційний_театр', 'шахрай', 'надіслати', 'довіряти', 'Орегон', 'хтось', 'зовнішній вигляд', 'операційна', 'злочинний', 'хірургія', 'особа', 'на', 'громадянин', 'зовні', 'індивідуальний'}</t>
-  </si>
-  <si>
     <t>{'термін дії', 'юридична філософія', 'уздовж', "нав'язливість", 'тяжкий', 'іноземець', 'бездомні', 'зовнішній', 'на відкритому повітрі', 'від', 'закон', 'кримінальний злочин', 'душа', 'довірити', 'Beaver_State', 'присвятити', 'інопланетянин', 'небезпечні для життя', 'похотість', 'правопорушення', 'вчинити', 'юриспруденція', 'інвестувати', 'вчинення', 'тягнути', 'на вулиці', 'сильний', 'незаконні', 'таких', 'убік', 'небезпечний', 'осудний', 'інституціоналізувати', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'Україна', 'відповідальність', 'стороння людина', 'відкритий', 'заборгованість', "фінансові зобов'язання", 'стороннє', 'міжнародні', 'без громадянства', 'зарядка', 'практика', 'строгість', 'місце', 'додається', 'довіра', 'експандер', 'шахрай', 'надіслати', 'довіряти', 'хтось', 'зовнішній вигляд', 'віддалений', 'операційна', 'операційний_театр', 'злочинний', 'хірургія', 'особа', 'Міжнародний', 'на', 'громадянин', 'серйозний', 'зовні', 'індивідуальний'}</t>
   </si>
   <si>
@@ -6566,6 +6545,27 @@
   </si>
   <si>
     <t>{'терористичний акт', 'теракт', 'своєрідний', 'мінімум', 'колишній', 'холодність', 'вандалізм', 'оподатковуваний', 'соматичний', 'адміністрація', 'світ', 'діяльності', 'Політологія', 'турбота', 'душа', 'фригідний', 'політика', 'військові розстріли', 'громадські', 'спеціальні', 'виконати', 'крайній', 'уряд', 'запилений', 'інший', 'кінець', 'управління', 'накладення', 'заподіяння', 'населення', 'урядова діяльність', 'легальне управління', 'крайні_точки', 'дії', 'крайня', 'тілесний', 'влади', 'нелюдський', 'холоднокровним', 'біль', 'біль в шиї', 'мінімальний', 'застуда', 'без винятку', 'фригідність', 'винятковий', 'зухвалість', 'процес', 'хтось', 'нижній_ліміт', 'рано', 'їдять молі', 'природний керування', 'темність', 'особа', 'активність', 'низька температура', 'його', 'холод', 'зловмисний_місіф', 'хуліганство', 'роздратування', 'індивідуальний', 'зокрема'}</t>
+  </si>
+  <si>
+    <t>{'законні', 'суд_справедливості', 'основа', 'причина', 'кримінальний злочин', 'правопорушення', 'законний', 'осудний', 'поза законом', 'підстави', 'зал суду', 'відповідальність', 'шанування', 'якір', 'ґрунт', 'переконання', 'осуд', 'судовий процес', 'Суд', 'шахрай', 'суд',  'злочинний', 'знайдено', 'база', 'індивідуальний'}</t>
+  </si>
+  <si>
+    <t>{'світ', 'право', 'громадський', 'завдання', 'населення', 'сукупність', 'цілісний',  'кодифікація', 'небезпечний', 'осудний', 'Україна', 'починання', 'поза законом', 'цивільний', 'конституційний', 'система', 'код', 'юридичний', 'злочинний', 'громадянські', 'кодекс', 'захист', 'людськість', 'для чого', 'мета', 'основа', 'грунт'}</t>
+  </si>
+  <si>
+    <t>{'наслідки', 'подія', 'осудний', 'вихід', 'Україна', 'поза законом', 'відповідальність', 'введення', 'заборгованість', 'запуск', 'запис', 'міжнародні', 'код', 'шахрай', 'рано', 'законотворчість', 'законодавчі', 'Міжнародний', 'злочинний', 'результат', 'на', 'наслідок', 'зовні'}</t>
+  </si>
+  <si>
+    <t>{'термін дії', 'колишній', 'юридична філософія', 'закон', 'наслідки', 'clock_time', 'плачевний', 'подія', 'підсумок', 'годинник', 'юриспруденція', 'офіційний', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'відповідальність', 'рано', 'речення', 'злочинний', 'результат', 'наслідок', 'кліп', 'функціонер', 'функціонувати', 'діяти', 'тривалість', 'тривати', 'період часу'}</t>
+  </si>
+  <si>
+    <t>{'заднім числом', 'колишній', 'юридична філософія', 'закон', 'подія', 'годинник', 'юриспруденція', 'ефект', 'осудний', 'поза законом', 'поліція', 'міліція', 'відповідальність', 'злочин', 'відповідні', 'після факту'}</t>
+  </si>
+  <si>
+    <t>{'термін дії', 'колишній', 'юридична філософія', 'кримінальний злочин', 'покарання', 'кара', 'плачевний', 'країна', 'батьківщина', 'правопорушення', 'вчинити', 'юриспруденція', 'проти', 'вчинення', 'злочин', 'тягнути', 'осудний', 'інституціоналізувати', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'Україна', 'відповідальність', 'злочин', 'ґрунт', 'заборгованість', 'панування', "фінансові зобов'язання", 'міжнародні', 'зарядка', 'практика', 'строгість', 'місце', 'закордоном', 'довіра', 'надіслати', 'довіряти', 'шахрай', 'рано', 'Міжнародний', 'територіальний_домініон', 'злочинний', 'на', 'території', 'зовні'}</t>
+  </si>
+  <si>
+    <t>{'інша країна', 'закордоном', 'термін дії', 'юридична філософія', 'зовнішній', 'від', 'закон', 'кримінальний злочин', 'правопорушення', 'вчинити', 'юриспруденція', 'чужий', 'віддалений', 'осудний', 'інституціоналізувати', 'поза законом', 'стійкість', 'міліція', 'поліція', 'витривалість', 'Україна', 'відповідальність', 'відкритий', 'заборгованість', "фінансові зобов'язання", 'стороннє', 'міжнародні', 'без громадянства', 'надіслати', 'довіряти', 'не', 'громадянин', 'зовні', 'індивідуальний'}</t>
   </si>
 </sst>
 </file>
@@ -7006,8 +7006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F261" workbookViewId="0">
-      <selection activeCell="J261" sqref="J261"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7058,7 +7059,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -7075,12 +7076,12 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="12" t="s">
-        <v>1784</v>
+        <v>2176</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7099,12 +7100,12 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="12" t="s">
-        <v>1785</v>
+        <v>2175</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7127,12 +7128,12 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="12" t="s">
-        <v>1786</v>
+        <v>2177</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -7151,7 +7152,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="12" t="s">
-        <v>1787</v>
+        <v>2178</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -7177,12 +7178,12 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="12" t="s">
-        <v>1788</v>
+        <v>2179</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="225" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -7203,12 +7204,12 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="12" t="s">
-        <v>1789</v>
+        <v>2180</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1748</v>
       </c>
@@ -7225,7 +7226,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="12" t="s">
-        <v>1790</v>
+        <v>2181</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -7247,7 +7248,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="12" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -7269,7 +7270,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="12" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -7295,7 +7296,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="12" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -7317,7 +7318,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="12" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -7347,7 +7348,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="12" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -7369,7 +7370,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -7391,7 +7392,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -7415,7 +7416,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="12" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -7435,7 +7436,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="12" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -7457,7 +7458,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="12" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -7483,7 +7484,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="12" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -7507,7 +7508,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="12" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -7529,7 +7530,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="12" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -7549,7 +7550,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="12" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -7571,7 +7572,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="12" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -7591,7 +7592,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="12" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -7615,7 +7616,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="12" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -7639,7 +7640,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="12" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -7659,7 +7660,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="12" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -7693,7 +7694,7 @@
         <v>1736</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -7719,7 +7720,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="12" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -7747,7 +7748,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="12" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -7769,7 +7770,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="12" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -7795,7 +7796,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="12" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -7817,7 +7818,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="12" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -7837,7 +7838,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="12" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -7857,7 +7858,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="12" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -7885,7 +7886,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="12" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -7911,7 +7912,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="12" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -7933,7 +7934,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="12" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -7957,7 +7958,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="12" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -7979,7 +7980,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="12" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -8007,7 +8008,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="12" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -8031,7 +8032,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="12" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -8055,7 +8056,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="12" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -8077,7 +8078,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="12" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -8099,7 +8100,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="12" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -8119,7 +8120,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="12" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -8139,7 +8140,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="12" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -8167,7 +8168,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="12" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
@@ -8191,7 +8192,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="12" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -8219,7 +8220,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="12" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -8253,7 +8254,7 @@
         <v>1737</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -8273,7 +8274,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="12" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -8299,7 +8300,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="12" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -8323,7 +8324,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="12" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -8345,7 +8346,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="12" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -8369,7 +8370,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="12" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -8393,7 +8394,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="12" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -8417,7 +8418,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="12" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -8439,7 +8440,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="12" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -8461,7 +8462,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="12" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -8489,7 +8490,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="12" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -8515,7 +8516,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="12" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -8543,7 +8544,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="12" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -8565,7 +8566,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="12" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -8593,7 +8594,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="12" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -8621,7 +8622,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="12" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -8651,7 +8652,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="12" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -8671,7 +8672,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="12" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -8699,7 +8700,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="12" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -8725,7 +8726,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="12" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -8751,7 +8752,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="12" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -8771,7 +8772,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="12" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -8795,7 +8796,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="12" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -8825,7 +8826,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="12" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -8855,7 +8856,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="12" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -8881,7 +8882,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="12" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -8911,7 +8912,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="12" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -8941,7 +8942,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="12" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -8967,7 +8968,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="12" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -8987,7 +8988,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="12" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -9009,7 +9010,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="12" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -9033,7 +9034,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="12" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -9059,7 +9060,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="12" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -9081,7 +9082,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="12" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -9109,7 +9110,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="12" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -9135,7 +9136,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="12" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -9161,7 +9162,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="12" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -9181,7 +9182,7 @@
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="12" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -9211,7 +9212,7 @@
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="12" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -9245,7 +9246,7 @@
         <v>1738</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -9267,7 +9268,7 @@
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
       <c r="J91" s="12" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -9291,7 +9292,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="12" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -9325,7 +9326,7 @@
         <v>1739</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -9355,7 +9356,7 @@
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="12" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -9381,7 +9382,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="12" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -9403,7 +9404,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="12" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
@@ -9429,7 +9430,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="12" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -9449,7 +9450,7 @@
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="12" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -9469,7 +9470,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="12" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -9489,7 +9490,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="12" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
@@ -9511,7 +9512,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="12" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -9535,7 +9536,7 @@
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="12" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -9557,7 +9558,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="12" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -9581,7 +9582,7 @@
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="12" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
@@ -9605,7 +9606,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="12" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -9625,7 +9626,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="12" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
@@ -9651,7 +9652,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="12" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
@@ -9673,7 +9674,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="12" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
@@ -9699,7 +9700,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="12" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
@@ -9725,7 +9726,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="12" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -9753,7 +9754,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="12" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -9777,7 +9778,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="12" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -9801,7 +9802,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="12" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -9825,7 +9826,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="12" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -9859,7 +9860,7 @@
         <v>1740</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -9881,7 +9882,7 @@
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="12" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -9901,7 +9902,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="12" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -9921,7 +9922,7 @@
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="12" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -9943,7 +9944,7 @@
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
       <c r="J119" s="12" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -9965,7 +9966,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="12" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -9987,7 +9988,7 @@
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="12" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -10007,7 +10008,7 @@
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="12" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -10027,7 +10028,7 @@
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="12" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -10047,7 +10048,7 @@
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="12" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -10069,7 +10070,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="12" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -10093,7 +10094,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="12" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -10115,7 +10116,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
       <c r="J127" s="12" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -10135,7 +10136,7 @@
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="12" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -10155,7 +10156,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
       <c r="J129" s="12" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -10177,7 +10178,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
       <c r="J130" s="12" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -10199,7 +10200,7 @@
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="12" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -10219,7 +10220,7 @@
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="12" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -10241,7 +10242,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="12" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -10261,7 +10262,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="12" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -10283,7 +10284,7 @@
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="12" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -10309,7 +10310,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="12" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -10331,7 +10332,7 @@
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="12" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -10351,7 +10352,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="12" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -10375,7 +10376,7 @@
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
       <c r="J139" s="12" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -10403,7 +10404,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
       <c r="J140" s="12" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -10427,7 +10428,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
       <c r="J141" s="12" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -10451,7 +10452,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
       <c r="J142" s="12" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -10471,7 +10472,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
       <c r="J143" s="12" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -10493,7 +10494,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="12" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -10515,7 +10516,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
       <c r="J145" s="12" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -10535,7 +10536,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
       <c r="J146" s="12" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -10563,7 +10564,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="12" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -10587,7 +10588,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="12" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -10607,7 +10608,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
       <c r="J149" s="12" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -10631,7 +10632,7 @@
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
       <c r="J150" s="12" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -10657,7 +10658,7 @@
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
       <c r="J151" s="12" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -10679,7 +10680,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
       <c r="J152" s="12" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -10699,7 +10700,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
       <c r="J153" s="12" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -10729,7 +10730,7 @@
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
       <c r="J154" s="12" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -10753,7 +10754,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
       <c r="J155" s="12" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
@@ -10777,7 +10778,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
       <c r="J156" s="12" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -10799,7 +10800,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
       <c r="J157" s="12" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -10821,7 +10822,7 @@
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
       <c r="J158" s="12" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -10851,7 +10852,7 @@
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="12" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -10879,7 +10880,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="12" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -10903,7 +10904,7 @@
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="12" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -10927,7 +10928,7 @@
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="12" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -10949,7 +10950,7 @@
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="12" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -10975,7 +10976,7 @@
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
       <c r="J164" s="12" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -11001,7 +11002,7 @@
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
       <c r="J165" s="12" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -11023,7 +11024,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="12" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -11045,7 +11046,7 @@
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="12" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -11067,7 +11068,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
       <c r="J168" s="12" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -11095,7 +11096,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
       <c r="J169" s="12" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -11123,7 +11124,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
       <c r="J170" s="12" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -11151,7 +11152,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
       <c r="J171" s="12" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -11173,7 +11174,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
       <c r="J172" s="12" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -11197,7 +11198,7 @@
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
       <c r="J173" s="12" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -11219,7 +11220,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
       <c r="J174" s="12" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -11239,7 +11240,7 @@
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
       <c r="J175" s="12" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -11259,7 +11260,7 @@
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
       <c r="J176" s="12" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -11281,7 +11282,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
       <c r="J177" s="12" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -11303,7 +11304,7 @@
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
       <c r="J178" s="12" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -11323,7 +11324,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
       <c r="J179" s="12" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -11347,7 +11348,7 @@
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
       <c r="J180" s="12" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -11369,7 +11370,7 @@
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
       <c r="J181" s="12" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -11391,7 +11392,7 @@
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
       <c r="J182" s="12" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -11411,7 +11412,7 @@
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
       <c r="J183" s="12" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -11435,7 +11436,7 @@
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
       <c r="J184" s="12" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -11461,7 +11462,7 @@
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
       <c r="J185" s="12" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
@@ -11485,7 +11486,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
       <c r="J186" s="12" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
@@ -11505,7 +11506,7 @@
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
       <c r="J187" s="12" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
@@ -11525,7 +11526,7 @@
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
       <c r="J188" s="12" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -11547,7 +11548,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="12" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -11575,7 +11576,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="12" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -11597,7 +11598,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
       <c r="J191" s="12" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -11619,7 +11620,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="12" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -11653,7 +11654,7 @@
         <v>1741</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -11681,7 +11682,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="12" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -11707,7 +11708,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
       <c r="J195" s="12" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -11733,7 +11734,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
       <c r="J196" s="12" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -11759,7 +11760,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
       <c r="J197" s="12" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -11783,7 +11784,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
       <c r="J198" s="12" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -11803,7 +11804,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
       <c r="J199" s="12" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -11825,7 +11826,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="12" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -11849,7 +11850,7 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
       <c r="J201" s="12" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -11869,7 +11870,7 @@
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="12" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
@@ -11889,7 +11890,7 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
       <c r="J203" s="12" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
@@ -11919,7 +11920,7 @@
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
       <c r="J204" s="12" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
@@ -11939,7 +11940,7 @@
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
       <c r="J205" s="12" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
@@ -11965,7 +11966,7 @@
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
       <c r="J206" s="12" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
@@ -11989,7 +11990,7 @@
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
       <c r="J207" s="12" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
@@ -12011,7 +12012,7 @@
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
       <c r="J208" s="12" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
@@ -12039,7 +12040,7 @@
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="12" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
@@ -12063,7 +12064,7 @@
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="12" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
@@ -12085,7 +12086,7 @@
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
       <c r="J211" s="12" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -12109,7 +12110,7 @@
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
       <c r="J212" s="12" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -12131,7 +12132,7 @@
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
       <c r="J213" s="12" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -12157,7 +12158,7 @@
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
       <c r="J214" s="12" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -12187,7 +12188,7 @@
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
       <c r="J215" s="12" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -12215,7 +12216,7 @@
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
       <c r="J216" s="12" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -12237,7 +12238,7 @@
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
       <c r="J217" s="12" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -12267,7 +12268,7 @@
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
       <c r="J218" s="12" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="K218" s="8"/>
       <c r="L218" s="8"/>
@@ -12295,7 +12296,7 @@
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
       <c r="J219" s="12" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
@@ -12317,7 +12318,7 @@
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
       <c r="J220" s="12" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="K220" s="8"/>
       <c r="L220" s="8"/>
@@ -12339,7 +12340,7 @@
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
       <c r="J221" s="12" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
@@ -12363,7 +12364,7 @@
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
       <c r="J222" s="12" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
@@ -12385,7 +12386,7 @@
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
       <c r="J223" s="12" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -12411,7 +12412,7 @@
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
       <c r="J224" s="12" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -12431,7 +12432,7 @@
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
       <c r="J225" s="12" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -12453,7 +12454,7 @@
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
       <c r="J226" s="12" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -12481,7 +12482,7 @@
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
       <c r="J227" s="12" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -12503,7 +12504,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
       <c r="J228" s="12" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -12523,7 +12524,7 @@
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
       <c r="J229" s="12" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -12551,7 +12552,7 @@
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
       <c r="J230" s="12" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -12573,7 +12574,7 @@
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
       <c r="J231" s="12" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
@@ -12599,7 +12600,7 @@
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
       <c r="J232" s="12" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -12619,7 +12620,7 @@
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
       <c r="J233" s="12" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -12639,7 +12640,7 @@
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
       <c r="J234" s="12" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="K234" s="8"/>
       <c r="L234" s="8"/>
@@ -12671,7 +12672,7 @@
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="12" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
@@ -12695,7 +12696,7 @@
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
       <c r="J236" s="12" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="K236" s="8"/>
       <c r="L236" s="8"/>
@@ -12719,7 +12720,7 @@
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
       <c r="J237" s="12" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="K237" s="8"/>
       <c r="L237" s="8"/>
@@ -12739,7 +12740,7 @@
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
       <c r="J238" s="12" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
@@ -12759,7 +12760,7 @@
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
       <c r="J239" s="12" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="K239" s="8"/>
       <c r="L239" s="8"/>
@@ -12781,7 +12782,7 @@
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
       <c r="J240" s="12" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="K240" s="8"/>
       <c r="L240" s="8"/>
@@ -12803,7 +12804,7 @@
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
       <c r="J241" s="12" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="K241" s="8"/>
       <c r="L241" s="8"/>
@@ -12829,7 +12830,7 @@
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
       <c r="J242" s="12" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="K242" s="8"/>
       <c r="L242" s="8"/>
@@ -12855,7 +12856,7 @@
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
       <c r="J243" s="12" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="K243" s="8"/>
       <c r="L243" s="8"/>
@@ -12881,7 +12882,7 @@
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
       <c r="J244" s="12" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="K244" s="8"/>
       <c r="L244" s="8"/>
@@ -12903,7 +12904,7 @@
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
       <c r="J245" s="12" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="K245" s="8"/>
       <c r="L245" s="8"/>
@@ -12925,7 +12926,7 @@
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
       <c r="J246" s="12" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="K246" s="8"/>
       <c r="L246" s="8"/>
@@ -12949,7 +12950,7 @@
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
       <c r="J247" s="12" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="K247" s="8"/>
       <c r="L247" s="8"/>
@@ -12971,7 +12972,7 @@
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
       <c r="J248" s="12" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="K248" s="8"/>
       <c r="L248" s="8"/>
@@ -12993,7 +12994,7 @@
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
       <c r="J249" s="12" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="K249" s="8"/>
       <c r="L249" s="8"/>
@@ -13023,7 +13024,7 @@
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
       <c r="J250" s="12" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="K250" s="8"/>
       <c r="L250" s="8"/>
@@ -13043,7 +13044,7 @@
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
       <c r="J251" s="12" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="K251" s="8"/>
       <c r="L251" s="8"/>
@@ -13067,7 +13068,7 @@
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
       <c r="J252" s="12" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
@@ -13089,7 +13090,7 @@
       <c r="H253" s="8"/>
       <c r="I253" s="8"/>
       <c r="J253" s="12" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="K253" s="8"/>
       <c r="L253" s="8"/>
@@ -13109,7 +13110,7 @@
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
       <c r="J254" s="12" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="K254" s="8"/>
       <c r="L254" s="8"/>
@@ -13129,7 +13130,7 @@
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
       <c r="J255" s="12" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
@@ -13151,7 +13152,7 @@
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
       <c r="J256" s="12" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
@@ -13171,7 +13172,7 @@
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
       <c r="J257" s="12" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="K257" s="8"/>
       <c r="L257" s="8"/>
@@ -13193,7 +13194,7 @@
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
       <c r="J258" s="12" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
@@ -13215,7 +13216,7 @@
       <c r="H259" s="8"/>
       <c r="I259" s="8"/>
       <c r="J259" s="12" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="8"/>
@@ -13235,7 +13236,7 @@
       <c r="H260" s="8"/>
       <c r="I260" s="8"/>
       <c r="J260" s="12" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
@@ -13259,7 +13260,7 @@
       <c r="H261" s="8"/>
       <c r="I261" s="8"/>
       <c r="J261" s="12" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
@@ -13281,7 +13282,7 @@
       <c r="H262" s="8"/>
       <c r="I262" s="8"/>
       <c r="J262" s="12" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
@@ -13303,7 +13304,7 @@
       <c r="H263" s="8"/>
       <c r="I263" s="8"/>
       <c r="J263" s="12" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
@@ -13325,7 +13326,7 @@
       <c r="H264" s="8"/>
       <c r="I264" s="8"/>
       <c r="J264" s="12" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
@@ -13347,7 +13348,7 @@
       <c r="H265" s="8"/>
       <c r="I265" s="8"/>
       <c r="J265" s="12" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
@@ -13377,7 +13378,7 @@
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
       <c r="J266" s="12" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="K266" s="8"/>
       <c r="L266" s="8"/>
@@ -13399,7 +13400,7 @@
       <c r="H267" s="8"/>
       <c r="I267" s="8"/>
       <c r="J267" s="12" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="K267" s="8"/>
       <c r="L267" s="8"/>
@@ -13433,7 +13434,7 @@
         <v>1773</v>
       </c>
       <c r="J268" s="12" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
@@ -13453,7 +13454,7 @@
       <c r="H269" s="8"/>
       <c r="I269" s="8"/>
       <c r="J269" s="12" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
@@ -13477,7 +13478,7 @@
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
       <c r="J270" s="12" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="K270" s="8"/>
       <c r="L270" s="8"/>
@@ -13501,7 +13502,7 @@
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
       <c r="J271" s="12" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="K271" s="8"/>
       <c r="L271" s="8"/>
@@ -13525,7 +13526,7 @@
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
       <c r="J272" s="12" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="K272" s="8"/>
       <c r="L272" s="8"/>
@@ -13545,7 +13546,7 @@
       <c r="H273" s="8"/>
       <c r="I273" s="8"/>
       <c r="J273" s="12" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="K273" s="8"/>
       <c r="L273" s="8"/>
@@ -13573,7 +13574,7 @@
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
       <c r="J274" s="12" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="K274" s="8"/>
       <c r="L274" s="8"/>
@@ -13597,7 +13598,7 @@
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
       <c r="J275" s="12" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="K275" s="8"/>
       <c r="L275" s="8"/>
@@ -13619,7 +13620,7 @@
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
       <c r="J276" s="12" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="K276" s="8"/>
       <c r="L276" s="8"/>
@@ -13641,7 +13642,7 @@
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
       <c r="J277" s="12" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="K277" s="8"/>
       <c r="L277" s="8"/>
@@ -13667,7 +13668,7 @@
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
       <c r="J278" s="12" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="K278" s="8"/>
       <c r="L278" s="8"/>
@@ -13689,7 +13690,7 @@
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
       <c r="J279" s="12" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="K279" s="8"/>
       <c r="L279" s="8"/>
@@ -13711,7 +13712,7 @@
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
       <c r="J280" s="12" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="K280" s="8"/>
       <c r="L280" s="8"/>
@@ -13735,7 +13736,7 @@
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
       <c r="J281" s="12" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="K281" s="8"/>
       <c r="L281" s="8"/>
@@ -13763,7 +13764,7 @@
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
       <c r="J282" s="12" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="K282" s="8"/>
       <c r="L282" s="8"/>
@@ -13785,7 +13786,7 @@
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
       <c r="J283" s="12" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="K283" s="8"/>
       <c r="L283" s="8"/>
@@ -13807,7 +13808,7 @@
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
       <c r="J284" s="12" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8"/>
@@ -13829,7 +13830,7 @@
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
       <c r="J285" s="12" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="K285" s="8"/>
       <c r="L285" s="8"/>
@@ -13851,7 +13852,7 @@
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
       <c r="J286" s="12" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="K286" s="8"/>
       <c r="L286" s="8"/>
@@ -13873,7 +13874,7 @@
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
       <c r="J287" s="12" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="K287" s="8"/>
       <c r="L287" s="8"/>
@@ -13897,7 +13898,7 @@
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
       <c r="J288" s="12" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="K288" s="8"/>
       <c r="L288" s="8"/>
@@ -13917,7 +13918,7 @@
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
       <c r="J289" s="12" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="K289" s="8"/>
       <c r="L289" s="8"/>
@@ -13941,7 +13942,7 @@
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
       <c r="J290" s="12" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="K290" s="8"/>
       <c r="L290" s="8"/>
@@ -13965,7 +13966,7 @@
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
       <c r="J291" s="12" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="K291" s="8"/>
       <c r="L291" s="8"/>
@@ -13989,7 +13990,7 @@
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
       <c r="J292" s="12" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="K292" s="8"/>
       <c r="L292" s="8"/>
@@ -14013,7 +14014,7 @@
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
       <c r="J293" s="12" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="K293" s="8"/>
       <c r="L293" s="8"/>
@@ -14037,7 +14038,7 @@
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
       <c r="J294" s="12" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="K294" s="8"/>
       <c r="L294" s="8"/>
@@ -14061,7 +14062,7 @@
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
       <c r="J295" s="12" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K295" s="8"/>
       <c r="L295" s="8"/>
@@ -14083,7 +14084,7 @@
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
       <c r="J296" s="12" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="K296" s="8"/>
       <c r="L296" s="8"/>
@@ -14103,7 +14104,7 @@
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
       <c r="J297" s="12" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="K297" s="8"/>
       <c r="L297" s="8"/>
@@ -14129,7 +14130,7 @@
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
       <c r="J298" s="12" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="K298" s="8"/>
       <c r="L298" s="8"/>
@@ -14149,7 +14150,7 @@
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
       <c r="J299" s="12" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="K299" s="8"/>
       <c r="L299" s="8"/>
@@ -14169,7 +14170,7 @@
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
       <c r="J300" s="12" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="K300" s="8"/>
       <c r="L300" s="8"/>
@@ -14203,7 +14204,7 @@
         <v>1742</v>
       </c>
       <c r="J301" s="12" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="K301" s="8"/>
       <c r="L301" s="8"/>
@@ -14223,7 +14224,7 @@
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
       <c r="J302" s="12" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="K302" s="8"/>
       <c r="L302" s="8"/>
@@ -14243,7 +14244,7 @@
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
       <c r="J303" s="12" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="K303" s="8"/>
       <c r="L303" s="8"/>
@@ -14267,7 +14268,7 @@
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
       <c r="J304" s="12" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="K304" s="8"/>
       <c r="L304" s="8"/>
@@ -14287,7 +14288,7 @@
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
       <c r="J305" s="12" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="K305" s="8"/>
       <c r="L305" s="8"/>
@@ -14309,7 +14310,7 @@
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
       <c r="J306" s="12" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="K306" s="8"/>
       <c r="L306" s="8"/>
@@ -14329,7 +14330,7 @@
       <c r="H307" s="8"/>
       <c r="I307" s="8"/>
       <c r="J307" s="12" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="K307" s="8"/>
       <c r="L307" s="8"/>
@@ -14355,7 +14356,7 @@
       <c r="H308" s="8"/>
       <c r="I308" s="8"/>
       <c r="J308" s="12" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="K308" s="8"/>
       <c r="L308" s="8"/>
@@ -14381,7 +14382,7 @@
       <c r="H309" s="8"/>
       <c r="I309" s="8"/>
       <c r="J309" s="12" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="K309" s="8"/>
       <c r="L309" s="8"/>
@@ -14409,7 +14410,7 @@
       <c r="H310" s="8"/>
       <c r="I310" s="8"/>
       <c r="J310" s="12" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="K310" s="8"/>
       <c r="L310" s="8"/>
@@ -14433,7 +14434,7 @@
       <c r="H311" s="8"/>
       <c r="I311" s="8"/>
       <c r="J311" s="12" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="K311" s="8"/>
       <c r="L311" s="8"/>
@@ -14457,7 +14458,7 @@
       <c r="H312" s="8"/>
       <c r="I312" s="8"/>
       <c r="J312" s="12" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="K312" s="8"/>
       <c r="L312" s="8"/>
@@ -14481,7 +14482,7 @@
       <c r="H313" s="8"/>
       <c r="I313" s="8"/>
       <c r="J313" s="12" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="K313" s="8"/>
       <c r="L313" s="8"/>
@@ -14511,7 +14512,7 @@
       <c r="H314" s="8"/>
       <c r="I314" s="8"/>
       <c r="J314" s="12" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="K314" s="8"/>
       <c r="L314" s="8"/>
@@ -14537,7 +14538,7 @@
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
       <c r="J315" s="12" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="K315" s="8"/>
       <c r="L315" s="8"/>
@@ -14567,7 +14568,7 @@
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
       <c r="J316" s="12" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="K316" s="8"/>
       <c r="L316" s="8"/>
@@ -14589,7 +14590,7 @@
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
       <c r="J317" s="12" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="K317" s="8"/>
       <c r="L317" s="8"/>
@@ -14615,7 +14616,7 @@
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
       <c r="J318" s="12" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="K318" s="8"/>
       <c r="L318" s="8"/>
@@ -14639,7 +14640,7 @@
       <c r="H319" s="8"/>
       <c r="I319" s="8"/>
       <c r="J319" s="12" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="K319" s="8"/>
       <c r="L319" s="8"/>
@@ -14665,7 +14666,7 @@
       <c r="H320" s="8"/>
       <c r="I320" s="8"/>
       <c r="J320" s="12" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="K320" s="8"/>
       <c r="L320" s="8"/>
@@ -14691,7 +14692,7 @@
       <c r="H321" s="8"/>
       <c r="I321" s="8"/>
       <c r="J321" s="12" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="K321" s="8"/>
       <c r="L321" s="8"/>
@@ -14713,7 +14714,7 @@
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
       <c r="J322" s="12" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="K322" s="8"/>
       <c r="L322" s="8"/>
@@ -14737,7 +14738,7 @@
       <c r="H323" s="8"/>
       <c r="I323" s="8"/>
       <c r="J323" s="12" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="8"/>
@@ -14761,7 +14762,7 @@
       <c r="H324" s="8"/>
       <c r="I324" s="8"/>
       <c r="J324" s="12" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="K324" s="8"/>
       <c r="L324" s="8"/>
@@ -14785,7 +14786,7 @@
       <c r="H325" s="8"/>
       <c r="I325" s="8"/>
       <c r="J325" s="12" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="K325" s="8"/>
       <c r="L325" s="8"/>
@@ -14807,7 +14808,7 @@
       <c r="H326" s="8"/>
       <c r="I326" s="8"/>
       <c r="J326" s="12" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="K326" s="8"/>
       <c r="L326" s="8"/>
@@ -14829,7 +14830,7 @@
       <c r="H327" s="8"/>
       <c r="I327" s="8"/>
       <c r="J327" s="12" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="K327" s="8"/>
       <c r="L327" s="8"/>
@@ -14851,7 +14852,7 @@
       <c r="H328" s="8"/>
       <c r="I328" s="8"/>
       <c r="J328" s="12" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="K328" s="8"/>
       <c r="L328" s="8"/>
@@ -14873,7 +14874,7 @@
       <c r="H329" s="8"/>
       <c r="I329" s="8"/>
       <c r="J329" s="12" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="K329" s="8"/>
       <c r="L329" s="8"/>
@@ -14895,7 +14896,7 @@
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
       <c r="J330" s="12" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="K330" s="8"/>
       <c r="L330" s="8"/>
@@ -14923,7 +14924,7 @@
       <c r="H331" s="8"/>
       <c r="I331" s="8"/>
       <c r="J331" s="12" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="K331" s="8"/>
       <c r="L331" s="8"/>
@@ -14949,7 +14950,7 @@
       <c r="H332" s="8"/>
       <c r="I332" s="8"/>
       <c r="J332" s="12" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="K332" s="8"/>
       <c r="L332" s="8"/>
@@ -14973,7 +14974,7 @@
       <c r="H333" s="8"/>
       <c r="I333" s="8"/>
       <c r="J333" s="12" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="K333" s="8"/>
       <c r="L333" s="8"/>
@@ -14993,7 +14994,7 @@
       <c r="H334" s="8"/>
       <c r="I334" s="8"/>
       <c r="J334" s="12" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="K334" s="8"/>
       <c r="L334" s="8"/>
@@ -15019,7 +15020,7 @@
       <c r="H335" s="8"/>
       <c r="I335" s="8"/>
       <c r="J335" s="12" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="K335" s="8"/>
       <c r="L335" s="8"/>
@@ -15039,7 +15040,7 @@
       <c r="H336" s="8"/>
       <c r="I336" s="8"/>
       <c r="J336" s="12" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="K336" s="8"/>
       <c r="L336" s="8"/>
@@ -15061,7 +15062,7 @@
       <c r="H337" s="8"/>
       <c r="I337" s="8"/>
       <c r="J337" s="12" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="K337" s="8"/>
       <c r="L337" s="8"/>
@@ -15083,7 +15084,7 @@
       <c r="H338" s="8"/>
       <c r="I338" s="8"/>
       <c r="J338" s="12" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="K338" s="8"/>
       <c r="L338" s="8"/>
@@ -15105,7 +15106,7 @@
       <c r="H339" s="8"/>
       <c r="I339" s="8"/>
       <c r="J339" s="12" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="K339" s="8"/>
       <c r="L339" s="8"/>
@@ -15127,7 +15128,7 @@
       <c r="H340" s="8"/>
       <c r="I340" s="8"/>
       <c r="J340" s="12" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="K340" s="8"/>
       <c r="L340" s="8"/>
@@ -15149,7 +15150,7 @@
       <c r="H341" s="8"/>
       <c r="I341" s="8"/>
       <c r="J341" s="12" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="K341" s="8"/>
       <c r="L341" s="8"/>
@@ -15173,7 +15174,7 @@
       <c r="H342" s="8"/>
       <c r="I342" s="8"/>
       <c r="J342" s="12" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="K342" s="8"/>
       <c r="L342" s="8"/>
@@ -15197,7 +15198,7 @@
       <c r="H343" s="8"/>
       <c r="I343" s="8"/>
       <c r="J343" s="12" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="K343" s="8"/>
       <c r="L343" s="8"/>
@@ -15221,7 +15222,7 @@
       <c r="H344" s="8"/>
       <c r="I344" s="8"/>
       <c r="J344" s="12" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="K344" s="8"/>
       <c r="L344" s="8"/>
@@ -15243,7 +15244,7 @@
       <c r="H345" s="8"/>
       <c r="I345" s="8"/>
       <c r="J345" s="12" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="K345" s="8"/>
       <c r="L345" s="8"/>
@@ -15263,7 +15264,7 @@
       <c r="H346" s="8"/>
       <c r="I346" s="8"/>
       <c r="J346" s="12" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="K346" s="8"/>
       <c r="L346" s="8"/>
@@ -15283,7 +15284,7 @@
       <c r="H347" s="8"/>
       <c r="I347" s="8"/>
       <c r="J347" s="12" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="K347" s="8"/>
       <c r="L347" s="8"/>
@@ -15303,7 +15304,7 @@
       <c r="H348" s="8"/>
       <c r="I348" s="8"/>
       <c r="J348" s="12" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="K348" s="8"/>
       <c r="L348" s="8"/>
@@ -15323,7 +15324,7 @@
       <c r="H349" s="8"/>
       <c r="I349" s="8"/>
       <c r="J349" s="12" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="K349" s="8"/>
       <c r="L349" s="8"/>
@@ -15345,7 +15346,7 @@
       <c r="H350" s="8"/>
       <c r="I350" s="8"/>
       <c r="J350" s="12" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="K350" s="8"/>
       <c r="L350" s="8"/>
@@ -15367,7 +15368,7 @@
       <c r="H351" s="8"/>
       <c r="I351" s="8"/>
       <c r="J351" s="12" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="K351" s="8"/>
       <c r="L351" s="8"/>
@@ -15387,7 +15388,7 @@
       <c r="H352" s="8"/>
       <c r="I352" s="8"/>
       <c r="J352" s="12" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="K352" s="8"/>
       <c r="L352" s="8"/>
@@ -15407,7 +15408,7 @@
       <c r="H353" s="8"/>
       <c r="I353" s="8"/>
       <c r="J353" s="12" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="K353" s="8"/>
       <c r="L353" s="8"/>
@@ -15427,7 +15428,7 @@
       <c r="H354" s="8"/>
       <c r="I354" s="8"/>
       <c r="J354" s="12" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="K354" s="8"/>
       <c r="L354" s="8"/>
@@ -15451,7 +15452,7 @@
       <c r="H355" s="8"/>
       <c r="I355" s="8"/>
       <c r="J355" s="12" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="K355" s="8"/>
       <c r="L355" s="8"/>
@@ -15473,7 +15474,7 @@
       <c r="H356" s="8"/>
       <c r="I356" s="8"/>
       <c r="J356" s="12" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="K356" s="8"/>
       <c r="L356" s="8"/>
@@ -15495,7 +15496,7 @@
       <c r="H357" s="8"/>
       <c r="I357" s="8"/>
       <c r="J357" s="12" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="K357" s="8"/>
       <c r="L357" s="8"/>
@@ -15521,7 +15522,7 @@
       <c r="H358" s="8"/>
       <c r="I358" s="8"/>
       <c r="J358" s="12" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="K358" s="8"/>
       <c r="L358" s="8"/>
@@ -15547,7 +15548,7 @@
       <c r="H359" s="8"/>
       <c r="I359" s="8"/>
       <c r="J359" s="12" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="K359" s="8"/>
       <c r="L359" s="8"/>
@@ -15571,7 +15572,7 @@
       <c r="H360" s="8"/>
       <c r="I360" s="8"/>
       <c r="J360" s="12" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="K360" s="8"/>
       <c r="L360" s="8"/>
@@ -15593,7 +15594,7 @@
       <c r="H361" s="8"/>
       <c r="I361" s="8"/>
       <c r="J361" s="12" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="K361" s="8"/>
       <c r="L361" s="8"/>
@@ -15615,7 +15616,7 @@
       <c r="H362" s="8"/>
       <c r="I362" s="8"/>
       <c r="J362" s="12" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="K362" s="8"/>
       <c r="L362" s="8"/>
@@ -15635,7 +15636,7 @@
       <c r="H363" s="8"/>
       <c r="I363" s="8"/>
       <c r="J363" s="12" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="K363" s="8"/>
       <c r="L363" s="8"/>
@@ -15655,7 +15656,7 @@
       <c r="H364" s="8"/>
       <c r="I364" s="8"/>
       <c r="J364" s="12" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="K364" s="8"/>
       <c r="L364" s="8"/>
@@ -15675,7 +15676,7 @@
       <c r="H365" s="8"/>
       <c r="I365" s="8"/>
       <c r="J365" s="12" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="K365" s="8"/>
       <c r="L365" s="8"/>
@@ -15699,7 +15700,7 @@
       <c r="H366" s="8"/>
       <c r="I366" s="8"/>
       <c r="J366" s="12" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="K366" s="8"/>
       <c r="L366" s="8"/>
@@ -15721,7 +15722,7 @@
       <c r="H367" s="8"/>
       <c r="I367" s="8"/>
       <c r="J367" s="12" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="K367" s="8"/>
       <c r="L367" s="8"/>
@@ -15741,7 +15742,7 @@
       <c r="H368" s="8"/>
       <c r="I368" s="8"/>
       <c r="J368" s="12" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="K368" s="8"/>
       <c r="L368" s="8"/>
@@ -15763,7 +15764,7 @@
       <c r="H369" s="8"/>
       <c r="I369" s="8"/>
       <c r="J369" s="12" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="K369" s="8"/>
       <c r="L369" s="8"/>
@@ -15785,7 +15786,7 @@
       <c r="H370" s="8"/>
       <c r="I370" s="8"/>
       <c r="J370" s="12" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="K370" s="8"/>
       <c r="L370" s="8"/>
@@ -15819,7 +15820,7 @@
         <v>1743</v>
       </c>
       <c r="J371" s="12" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="K371" s="8"/>
       <c r="L371" s="8"/>
@@ -15843,7 +15844,7 @@
       <c r="H372" s="8"/>
       <c r="I372" s="8"/>
       <c r="J372" s="12" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="K372" s="8"/>
       <c r="L372" s="8"/>
@@ -15863,7 +15864,7 @@
       <c r="H373" s="8"/>
       <c r="I373" s="8"/>
       <c r="J373" s="12" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="K373" s="8"/>
       <c r="L373" s="8"/>
@@ -15887,7 +15888,7 @@
       <c r="H374" s="8"/>
       <c r="I374" s="8"/>
       <c r="J374" s="12" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="K374" s="8"/>
       <c r="L374" s="8"/>
@@ -15915,7 +15916,7 @@
       <c r="H375" s="8"/>
       <c r="I375" s="8"/>
       <c r="J375" s="12" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="K375" s="8"/>
       <c r="L375" s="8"/>
@@ -15939,7 +15940,7 @@
       <c r="H376" s="8"/>
       <c r="I376" s="8"/>
       <c r="J376" s="12" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="K376" s="8"/>
       <c r="L376" s="8"/>
@@ -15959,7 +15960,7 @@
       <c r="H377" s="8"/>
       <c r="I377" s="8"/>
       <c r="J377" s="12" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="K377" s="8"/>
       <c r="L377" s="8"/>
@@ -15983,7 +15984,7 @@
       <c r="H378" s="8"/>
       <c r="I378" s="8"/>
       <c r="J378" s="12" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="K378" s="8"/>
       <c r="L378" s="8"/>
@@ -16005,7 +16006,7 @@
       <c r="H379" s="8"/>
       <c r="I379" s="8"/>
       <c r="J379" s="12" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="K379" s="8"/>
       <c r="L379" s="8"/>
@@ -16029,7 +16030,7 @@
       <c r="H380" s="8"/>
       <c r="I380" s="8"/>
       <c r="J380" s="12" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="K380" s="8"/>
       <c r="L380" s="8"/>
@@ -16049,7 +16050,7 @@
       <c r="H381" s="8"/>
       <c r="I381" s="8"/>
       <c r="J381" s="12" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="K381" s="8"/>
       <c r="L381" s="8"/>
@@ -16071,7 +16072,7 @@
       <c r="H382" s="8"/>
       <c r="I382" s="8"/>
       <c r="J382" s="12" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="K382" s="8"/>
       <c r="L382" s="8"/>
@@ -16093,7 +16094,7 @@
       <c r="H383" s="8"/>
       <c r="I383" s="8"/>
       <c r="J383" s="12" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="K383" s="8"/>
       <c r="L383" s="8"/>
@@ -16117,7 +16118,7 @@
       <c r="H384" s="8"/>
       <c r="I384" s="8"/>
       <c r="J384" s="12" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="K384" s="8"/>
       <c r="L384" s="8"/>
@@ -16141,7 +16142,7 @@
       <c r="H385" s="8"/>
       <c r="I385" s="8"/>
       <c r="J385" s="12" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="K385" s="8"/>
       <c r="L385" s="8"/>
@@ -16165,7 +16166,7 @@
       <c r="H386" s="8"/>
       <c r="I386" s="8"/>
       <c r="J386" s="12" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="K386" s="8"/>
       <c r="L386" s="8"/>
@@ -16187,7 +16188,7 @@
       <c r="H387" s="8"/>
       <c r="I387" s="8"/>
       <c r="J387" s="12" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="K387" s="8"/>
       <c r="L387" s="8"/>
@@ -16211,7 +16212,7 @@
       <c r="H388" s="8"/>
       <c r="I388" s="8"/>
       <c r="J388" s="12" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="K388" s="8"/>
       <c r="L388" s="8"/>
@@ -16233,7 +16234,7 @@
       <c r="H389" s="8"/>
       <c r="I389" s="8"/>
       <c r="J389" s="12" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="K389" s="8"/>
       <c r="L389" s="8"/>
@@ -16265,7 +16266,7 @@
       </c>
       <c r="I390" s="8"/>
       <c r="J390" s="12" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="K390" s="8"/>
       <c r="L390" s="8"/>
@@ -16291,7 +16292,7 @@
       <c r="H391" s="8"/>
       <c r="I391" s="8"/>
       <c r="J391" s="12" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="K391" s="8"/>
       <c r="L391" s="8"/>
@@ -16317,7 +16318,7 @@
       <c r="H392" s="8"/>
       <c r="I392" s="8"/>
       <c r="J392" s="12" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="K392" s="8"/>
       <c r="L392" s="8"/>
@@ -16343,7 +16344,7 @@
       <c r="H393" s="8"/>
       <c r="I393" s="8"/>
       <c r="J393" s="12" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="K393" s="8"/>
       <c r="L393" s="8"/>
@@ -16369,7 +16370,7 @@
       <c r="H394" s="8"/>
       <c r="I394" s="8"/>
       <c r="J394" s="12" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="K394" s="8"/>
       <c r="L394" s="8"/>
@@ -16391,7 +16392,7 @@
       <c r="H395" s="8"/>
       <c r="I395" s="8"/>
       <c r="J395" s="12" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="K395" s="8"/>
       <c r="L395" s="8"/>
@@ -16415,7 +16416,7 @@
       <c r="H396" s="8"/>
       <c r="I396" s="8"/>
       <c r="J396" s="12" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="K396" s="8"/>
       <c r="L396" s="8"/>
@@ -16437,7 +16438,7 @@
       <c r="H397" s="8"/>
       <c r="I397" s="8"/>
       <c r="J397" s="12" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="K397" s="8"/>
       <c r="L397" s="8"/>
@@ -16459,7 +16460,7 @@
       <c r="H398" s="8"/>
       <c r="I398" s="8"/>
       <c r="J398" s="12" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="K398" s="8"/>
       <c r="L398" s="8"/>
@@ -16481,7 +16482,7 @@
       <c r="H399" s="8"/>
       <c r="I399" s="8"/>
       <c r="J399" s="12" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="K399" s="8"/>
       <c r="L399" s="8"/>
